--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -952,7 +952,7 @@
         <v>0.9949362300993597</v>
       </c>
       <c r="D13">
-        <v>0.9950778694753354</v>
+        <v>0.9950778694753355</v>
       </c>
       <c r="E13">
         <v>0.9953632732079455</v>
@@ -964,13 +964,13 @@
         <v>0.9961725939892997</v>
       </c>
       <c r="H13">
-        <v>0.9959845843276107</v>
+        <v>0.9959845843276111</v>
       </c>
       <c r="I13">
         <v>0.9949283083447468</v>
       </c>
       <c r="J13">
-        <v>0.9950778694753354</v>
+        <v>0.9950778694753355</v>
       </c>
       <c r="K13">
         <v>0.9952205713416404</v>
@@ -979,7 +979,7 @@
         <v>0.9950784007205</v>
       </c>
       <c r="M13">
-        <v>0.9954104765740496</v>
+        <v>0.9954104765740497</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9904816264587328</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.016397467914081</v>
+      </c>
+      <c r="D16">
+        <v>1.164293674555247</v>
+      </c>
+      <c r="E16">
+        <v>0.9387573940798133</v>
+      </c>
+      <c r="F16">
+        <v>1.016397467914081</v>
+      </c>
+      <c r="G16">
+        <v>1.057764820783397</v>
+      </c>
+      <c r="H16">
+        <v>0.9383858076508292</v>
+      </c>
+      <c r="I16">
+        <v>0.9584598127781756</v>
+      </c>
+      <c r="J16">
+        <v>1.164293674555247</v>
+      </c>
+      <c r="K16">
+        <v>1.05152553431753</v>
+      </c>
+      <c r="L16">
+        <v>1.033961501115806</v>
+      </c>
+      <c r="M16">
+        <v>1.012343162960257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.016397467914081</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
@@ -955,7 +955,7 @@
         <v>0.9949362300993597</v>
       </c>
       <c r="D13">
-        <v>0.9950778694753355</v>
+        <v>0.9950778694753354</v>
       </c>
       <c r="E13">
         <v>0.9953632732079455</v>
@@ -967,13 +967,13 @@
         <v>0.9961725939892997</v>
       </c>
       <c r="H13">
-        <v>0.9959845843276111</v>
+        <v>0.9959845843276107</v>
       </c>
       <c r="I13">
         <v>0.9949283083447468</v>
       </c>
       <c r="J13">
-        <v>0.9950778694753355</v>
+        <v>0.9950778694753354</v>
       </c>
       <c r="K13">
         <v>0.9952205713416404</v>
@@ -982,7 +982,7 @@
         <v>0.9950784007205</v>
       </c>
       <c r="M13">
-        <v>0.9954104765740497</v>
+        <v>0.9954104765740496</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7060799999999997</v>
+        <v>1.016397467914081</v>
       </c>
       <c r="D10">
-        <v>1.338312000000001</v>
+        <v>1.164293674555247</v>
       </c>
       <c r="E10">
-        <v>1.000016</v>
+        <v>0.9387573940798133</v>
       </c>
       <c r="F10">
-        <v>0.7060799999999997</v>
+        <v>1.016397467914081</v>
       </c>
       <c r="G10">
-        <v>1.178648000000001</v>
+        <v>1.057764820783397</v>
       </c>
       <c r="H10">
-        <v>0.9008359999999992</v>
+        <v>0.9383858076508292</v>
       </c>
       <c r="I10">
-        <v>0.9190360000000001</v>
+        <v>0.9584598127781756</v>
       </c>
       <c r="J10">
-        <v>1.338312000000001</v>
+        <v>1.164293674555247</v>
       </c>
       <c r="K10">
-        <v>1.169164</v>
+        <v>1.05152553431753</v>
       </c>
       <c r="L10">
-        <v>0.937622</v>
+        <v>1.033961501115806</v>
       </c>
       <c r="M10">
-        <v>1.007154666666667</v>
+        <v>1.012343162960257</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.8651284232307052</v>
       </c>
       <c r="D11">
-        <v>1.293887499999999</v>
+        <v>0.9491879909589457</v>
       </c>
       <c r="E11">
-        <v>0.9901374999999997</v>
+        <v>1.097094467977835</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.8651284232307052</v>
       </c>
       <c r="G11">
-        <v>1.260825000000001</v>
+        <v>0.8564506183700774</v>
       </c>
       <c r="H11">
-        <v>0.6504250000000005</v>
+        <v>1.420787206736747</v>
       </c>
       <c r="I11">
-        <v>0.91</v>
+        <v>1.031116774713991</v>
       </c>
       <c r="J11">
-        <v>1.293887499999999</v>
+        <v>0.9491879909589457</v>
       </c>
       <c r="K11">
-        <v>1.142012499999999</v>
+        <v>1.02314122946839</v>
       </c>
       <c r="L11">
-        <v>0.9210062499999996</v>
+        <v>0.9441348263495477</v>
       </c>
       <c r="M11">
-        <v>0.9675458333333332</v>
+        <v>1.036627580331384</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8238491901951993</v>
+        <v>0.8648546335092328</v>
       </c>
       <c r="D12">
-        <v>1.1706334416896</v>
+        <v>0.952154130189748</v>
       </c>
       <c r="E12">
-        <v>0.990390712729598</v>
+        <v>1.096198270893054</v>
       </c>
       <c r="F12">
-        <v>0.8238491901951993</v>
+        <v>0.8648546335092328</v>
       </c>
       <c r="G12">
-        <v>1.149711720652797</v>
+        <v>0.8580951606762712</v>
       </c>
       <c r="H12">
-        <v>0.7965953888256005</v>
+        <v>1.418456821763833</v>
       </c>
       <c r="I12">
-        <v>0.9451911307263993</v>
+        <v>1.030366014182722</v>
       </c>
       <c r="J12">
-        <v>1.1706334416896</v>
+        <v>0.952154130189748</v>
       </c>
       <c r="K12">
-        <v>1.080512077209599</v>
+        <v>1.024176200541401</v>
       </c>
       <c r="L12">
-        <v>0.9521806337023991</v>
+        <v>0.9445154170253169</v>
       </c>
       <c r="M12">
-        <v>0.9793952641365323</v>
+        <v>1.036687505202477</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949362300993597</v>
+        <v>0.8647370851650312</v>
       </c>
       <c r="D13">
-        <v>0.9950778694753354</v>
+        <v>0.950433596945937</v>
       </c>
       <c r="E13">
-        <v>0.9953632732079455</v>
+        <v>1.096875468137782</v>
       </c>
       <c r="F13">
-        <v>0.9949362300993597</v>
+        <v>0.8647370851650312</v>
       </c>
       <c r="G13">
-        <v>0.9961725939892997</v>
+        <v>0.8568942790295715</v>
       </c>
       <c r="H13">
-        <v>0.9959845843276107</v>
+        <v>1.420693219209383</v>
       </c>
       <c r="I13">
-        <v>0.9949283083447468</v>
+        <v>1.030851293857961</v>
       </c>
       <c r="J13">
-        <v>0.9950778694753354</v>
+        <v>0.950433596945937</v>
       </c>
       <c r="K13">
-        <v>0.9952205713416404</v>
+        <v>1.02365453254186</v>
       </c>
       <c r="L13">
-        <v>0.9950784007205</v>
+        <v>0.9441958088534455</v>
       </c>
       <c r="M13">
-        <v>0.9954104765740496</v>
+        <v>1.036747490390944</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.019517165461276</v>
+        <v>0.7060799999999997</v>
       </c>
       <c r="D14">
-        <v>0.97273476138757</v>
+        <v>1.338312000000001</v>
       </c>
       <c r="E14">
-        <v>0.9921710918358011</v>
+        <v>1.000016</v>
       </c>
       <c r="F14">
-        <v>1.019517165461276</v>
+        <v>0.7060799999999997</v>
       </c>
       <c r="G14">
-        <v>0.9854260773953819</v>
+        <v>1.178648000000001</v>
       </c>
       <c r="H14">
-        <v>0.988653839220813</v>
+        <v>0.9008359999999992</v>
       </c>
       <c r="I14">
-        <v>0.9986721942179078</v>
+        <v>0.9190360000000001</v>
       </c>
       <c r="J14">
-        <v>0.97273476138757</v>
+        <v>1.338312000000001</v>
       </c>
       <c r="K14">
-        <v>0.9824529266116855</v>
+        <v>1.169164</v>
       </c>
       <c r="L14">
-        <v>1.000985046036481</v>
+        <v>0.937622</v>
       </c>
       <c r="M14">
-        <v>0.9928625215864583</v>
+        <v>1.007154666666667</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00058675045867</v>
+        <v>0.7</v>
       </c>
       <c r="D15">
-        <v>0.9288437873332713</v>
+        <v>1.293887499999999</v>
       </c>
       <c r="E15">
-        <v>1.011466811523736</v>
+        <v>0.9901374999999997</v>
       </c>
       <c r="F15">
-        <v>1.00058675045867</v>
+        <v>0.7</v>
       </c>
       <c r="G15">
-        <v>0.9666629710372961</v>
+        <v>1.260825000000001</v>
       </c>
       <c r="H15">
-        <v>1.025298675524156</v>
+        <v>0.6504250000000005</v>
       </c>
       <c r="I15">
-        <v>1.010030762875268</v>
+        <v>0.91</v>
       </c>
       <c r="J15">
-        <v>0.9288437873332713</v>
+        <v>1.293887499999999</v>
       </c>
       <c r="K15">
-        <v>0.9701552994285038</v>
+        <v>1.142012499999999</v>
       </c>
       <c r="L15">
-        <v>0.9853710249435869</v>
+        <v>0.9210062499999996</v>
       </c>
       <c r="M15">
-        <v>0.9904816264587328</v>
+        <v>0.9675458333333332</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.016397467914081</v>
+        <v>0.8238491901951993</v>
       </c>
       <c r="D16">
-        <v>1.164293674555247</v>
+        <v>1.1706334416896</v>
       </c>
       <c r="E16">
-        <v>0.9387573940798133</v>
+        <v>0.990390712729598</v>
       </c>
       <c r="F16">
-        <v>1.016397467914081</v>
+        <v>0.8238491901951993</v>
       </c>
       <c r="G16">
-        <v>1.057764820783397</v>
+        <v>1.149711720652797</v>
       </c>
       <c r="H16">
-        <v>0.9383858076508292</v>
+        <v>0.7965953888256005</v>
       </c>
       <c r="I16">
-        <v>0.9584598127781756</v>
+        <v>0.9451911307263993</v>
       </c>
       <c r="J16">
-        <v>1.164293674555247</v>
+        <v>1.1706334416896</v>
       </c>
       <c r="K16">
-        <v>1.05152553431753</v>
+        <v>1.080512077209599</v>
       </c>
       <c r="L16">
-        <v>1.033961501115806</v>
+        <v>0.9521806337023991</v>
       </c>
       <c r="M16">
-        <v>1.012343162960257</v>
+        <v>0.9793952641365323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9949362300993597</v>
+      </c>
+      <c r="D17">
+        <v>0.9950778694753355</v>
+      </c>
+      <c r="E17">
+        <v>0.9953632732079455</v>
+      </c>
+      <c r="F17">
+        <v>0.9949362300993597</v>
+      </c>
+      <c r="G17">
+        <v>0.9961725939892997</v>
+      </c>
+      <c r="H17">
+        <v>0.9959845843276111</v>
+      </c>
+      <c r="I17">
+        <v>0.9949283083447468</v>
+      </c>
+      <c r="J17">
+        <v>0.9950778694753355</v>
+      </c>
+      <c r="K17">
+        <v>0.9952205713416404</v>
+      </c>
+      <c r="L17">
+        <v>0.9950784007205</v>
+      </c>
+      <c r="M17">
+        <v>0.9954104765740497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.019517165461276</v>
+      </c>
+      <c r="D18">
+        <v>0.97273476138757</v>
+      </c>
+      <c r="E18">
+        <v>0.9921710918358011</v>
+      </c>
+      <c r="F18">
+        <v>1.019517165461276</v>
+      </c>
+      <c r="G18">
+        <v>0.9854260773953819</v>
+      </c>
+      <c r="H18">
+        <v>0.988653839220813</v>
+      </c>
+      <c r="I18">
+        <v>0.9986721942179078</v>
+      </c>
+      <c r="J18">
+        <v>0.97273476138757</v>
+      </c>
+      <c r="K18">
+        <v>0.9824529266116855</v>
+      </c>
+      <c r="L18">
+        <v>1.000985046036481</v>
+      </c>
+      <c r="M18">
+        <v>0.9928625215864583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.00058675045867</v>
+      </c>
+      <c r="D19">
+        <v>0.9288437873332713</v>
+      </c>
+      <c r="E19">
+        <v>1.011466811523736</v>
+      </c>
+      <c r="F19">
+        <v>1.00058675045867</v>
+      </c>
+      <c r="G19">
+        <v>0.9666629710372961</v>
+      </c>
+      <c r="H19">
+        <v>1.025298675524156</v>
+      </c>
+      <c r="I19">
+        <v>1.010030762875268</v>
+      </c>
+      <c r="J19">
+        <v>0.9288437873332713</v>
+      </c>
+      <c r="K19">
+        <v>0.9701552994285038</v>
+      </c>
+      <c r="L19">
+        <v>0.9853710249435869</v>
+      </c>
+      <c r="M19">
+        <v>0.9904816264587328</v>
       </c>
     </row>
   </sheetData>
